--- a/计划/2025学习计划.xlsx
+++ b/计划/2025学习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13040" activeTab="1"/>
+    <workbookView windowHeight="23840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="28">
   <si>
     <t>早餐</t>
   </si>
@@ -52,6 +52,71 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1音视频/10技术书/复习1/1习题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20非技术书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1音视频/10技术书/复习1/1习题</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1音频/1视频/10技术书/1习题</t>
     </r>
     <r>
@@ -90,6 +155,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1音频/1视频/10技术书/1习题
 </t>
     </r>
@@ -115,6 +187,18 @@
       <t xml:space="preserve">
 1音频/1视频/10技术书/1习题</t>
     </r>
+  </si>
+  <si>
+    <t>胸</t>
+  </si>
+  <si>
+    <t>背</t>
+  </si>
+  <si>
+    <t>腿</t>
+  </si>
+  <si>
+    <t>肩</t>
   </si>
   <si>
     <t>1音频/1视频/10技术书/1习题
@@ -166,9 +250,6 @@
   </si>
   <si>
     <t>跑步</t>
-  </si>
-  <si>
-    <t>胸</t>
   </si>
   <si>
     <t>三明治</t>
@@ -867,7 +948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,6 +992,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2331,25 +2415,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -2441,25 +2525,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -2539,25 +2623,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -2637,25 +2721,25 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -2711,13 +2795,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -3347,25 +3431,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -3457,25 +3541,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3555,25 +3639,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3653,25 +3737,25 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -3727,13 +3811,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -3779,8 +3863,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -3854,26 +3938,26 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>4</v>
+      <c r="C5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -3964,26 +4048,26 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>4</v>
+      <c r="B13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4062,26 +4146,26 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>4</v>
+      <c r="B20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4160,26 +4244,26 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>4</v>
+      <c r="B27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4234,14 +4318,14 @@
       <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>4</v>
+      <c r="B34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -4287,8 +4371,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B34" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -4362,26 +4446,26 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>4</v>
+      <c r="B5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -4472,26 +4556,26 @@
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>4</v>
+      <c r="B13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4570,26 +4654,26 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>4</v>
+      <c r="B20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4668,26 +4752,26 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>4</v>
+      <c r="B27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -4695,12 +4779,22 @@
         <v>6</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
@@ -4743,13 +4837,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -5379,25 +5473,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -5489,25 +5583,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -5587,25 +5681,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -5685,25 +5779,25 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -5759,13 +5853,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -5870,7 +5964,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -5890,25 +5984,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -5965,10 +6059,10 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -5980,11 +6074,11 @@
         <v>1</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -5996,7 +6090,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6010,25 +6104,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -6036,13 +6130,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6114,25 +6208,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -6212,7 +6306,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>4</v>
@@ -6383,7 +6477,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -6416,25 +6510,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -6526,25 +6620,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -6590,10 +6684,10 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -6604,16 +6698,16 @@
         <v>1</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="E18" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -6624,16 +6718,16 @@
         <v>2</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -6644,25 +6738,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -6672,7 +6766,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -6744,25 +6838,25 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -6818,13 +6912,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
@@ -7454,25 +7548,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" customHeight="1" spans="1:8">
@@ -7564,25 +7658,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -7662,25 +7756,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -7760,25 +7854,25 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
@@ -7834,13 +7928,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
